--- a/src/main/resources/out/result.xlsx
+++ b/src/main/resources/out/result.xlsx
@@ -317,7 +317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C74"/>
+  <dimension ref="A2:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -325,587 +325,514 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="B2"/>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="B3"/>
+      <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="B4"/>
+      <c r="C4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="B5"/>
+      <c r="C5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="B6"/>
+      <c r="C6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="B7"/>
+      <c r="C7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="B8"/>
+      <c r="C8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="B9"/>
+      <c r="C9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="B10"/>
+      <c r="C10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
         <v>15</v>
       </c>
+      <c r="B11"/>
+      <c r="C11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
         <v>16</v>
       </c>
+      <c r="B12"/>
+      <c r="C12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
         <v>18</v>
       </c>
+      <c r="B13"/>
+      <c r="C13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
         <v>19</v>
       </c>
+      <c r="B14"/>
+      <c r="C14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
         <v>20</v>
       </c>
+      <c r="B15"/>
+      <c r="C15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
         <v>22</v>
       </c>
+      <c r="B16"/>
+      <c r="C16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
         <v>23</v>
       </c>
+      <c r="B17"/>
+      <c r="C17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
         <v>25</v>
       </c>
+      <c r="B18"/>
+      <c r="C18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
         <v>26</v>
       </c>
+      <c r="B19"/>
+      <c r="C19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
         <v>27</v>
       </c>
+      <c r="B20"/>
+      <c r="C20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
         <v>28</v>
       </c>
+      <c r="B21"/>
+      <c r="C21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
         <v>30</v>
       </c>
+      <c r="B22"/>
+      <c r="C22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
         <v>32</v>
       </c>
+      <c r="B23"/>
+      <c r="C23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
         <v>33</v>
       </c>
+      <c r="B24"/>
+      <c r="C24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
         <v>34</v>
       </c>
+      <c r="B25"/>
+      <c r="C25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
         <v>35</v>
       </c>
+      <c r="B26"/>
+      <c r="C26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
         <v>36</v>
       </c>
+      <c r="B27"/>
+      <c r="C27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
         <v>37</v>
       </c>
+      <c r="B28"/>
+      <c r="C28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
         <v>38</v>
       </c>
+      <c r="B29"/>
+      <c r="C29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
         <v>39</v>
       </c>
+      <c r="B30"/>
+      <c r="C30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
         <v>40</v>
       </c>
+      <c r="B31"/>
+      <c r="C31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
         <v>41</v>
       </c>
+      <c r="B32"/>
+      <c r="C32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
         <v>42</v>
       </c>
+      <c r="B33"/>
+      <c r="C33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
         <v>43</v>
       </c>
+      <c r="B34"/>
+      <c r="C34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" t="s">
         <v>45</v>
       </c>
+      <c r="B35"/>
+      <c r="C35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
         <v>46</v>
       </c>
+      <c r="B36"/>
+      <c r="C36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s">
         <v>47</v>
       </c>
+      <c r="B37"/>
+      <c r="C37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
         <v>48</v>
       </c>
+      <c r="B38"/>
+      <c r="C38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
         <v>49</v>
       </c>
+      <c r="B39"/>
+      <c r="C39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
         <v>50</v>
       </c>
+      <c r="B40"/>
+      <c r="C40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" t="s">
         <v>51</v>
       </c>
+      <c r="B41"/>
+      <c r="C41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
         <v>52</v>
       </c>
+      <c r="B42"/>
+      <c r="C42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" t="s">
         <v>53</v>
       </c>
+      <c r="B43"/>
+      <c r="C43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
         <v>54</v>
       </c>
+      <c r="B44"/>
+      <c r="C44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" t="s">
         <v>55</v>
       </c>
+      <c r="B45"/>
+      <c r="C45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" t="s">
         <v>56</v>
       </c>
+      <c r="B46"/>
+      <c r="C46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" t="s">
         <v>57</v>
       </c>
+      <c r="B47"/>
+      <c r="C47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" t="s">
         <v>58</v>
       </c>
+      <c r="B48"/>
+      <c r="C48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" t="s">
         <v>59</v>
       </c>
+      <c r="B49"/>
+      <c r="C49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" t="s">
         <v>60</v>
       </c>
+      <c r="B50"/>
+      <c r="C50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
         <v>61</v>
       </c>
+      <c r="B51"/>
+      <c r="C51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" t="s">
         <v>62</v>
       </c>
+      <c r="B52"/>
+      <c r="C52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" t="s">
         <v>63</v>
       </c>
+      <c r="B53"/>
+      <c r="C53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" t="s">
         <v>64</v>
       </c>
+      <c r="B54"/>
+      <c r="C54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" t="s">
         <v>65</v>
       </c>
+      <c r="B55"/>
+      <c r="C55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
         <v>66</v>
       </c>
+      <c r="B56"/>
+      <c r="C56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
         <v>67</v>
       </c>
+      <c r="B57"/>
+      <c r="C57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
         <v>68</v>
       </c>
+      <c r="B58"/>
+      <c r="C58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
         <v>69</v>
       </c>
+      <c r="B59"/>
+      <c r="C59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" t="s">
         <v>70</v>
       </c>
+      <c r="B60"/>
+      <c r="C60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" t="s">
         <v>71</v>
       </c>
+      <c r="B61"/>
+      <c r="C61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" t="s">
         <v>72</v>
       </c>
+      <c r="B62"/>
+      <c r="C62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
         <v>73</v>
       </c>
+      <c r="B63"/>
+      <c r="C63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" t="s">
         <v>74</v>
       </c>
+      <c r="B64"/>
+      <c r="C64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" t="s">
         <v>75</v>
       </c>
+      <c r="B65"/>
+      <c r="C65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
         <v>76</v>
       </c>
+      <c r="B66"/>
+      <c r="C66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" t="s">
         <v>77</v>
       </c>
+      <c r="B67"/>
+      <c r="C67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" t="s">
         <v>78</v>
       </c>
+      <c r="B68"/>
+      <c r="C68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" t="s">
         <v>79</v>
       </c>
+      <c r="B69"/>
+      <c r="C69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" t="s">
         <v>80</v>
       </c>
+      <c r="B70"/>
+      <c r="C70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" t="s">
         <v>81</v>
       </c>
+      <c r="B71"/>
+      <c r="C71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" t="s">
         <v>83</v>
       </c>
+      <c r="B72"/>
+      <c r="C72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" t="s">
         <v>85</v>
       </c>
+      <c r="B73"/>
+      <c r="C73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" t="s">
         <v>86</v>
       </c>
+      <c r="B74"/>
+      <c r="C74"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
